--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16140,6 +16140,43 @@
         </is>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16177,6 +16177,43 @@
         </is>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16214,6 +16214,43 @@
         </is>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16251,6 +16251,41 @@
         </is>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I432" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16286,6 +16286,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03002.xlsx
+++ b/data/03002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16323,6 +16323,43 @@
         </is>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>03002</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>REDIDEA</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
